--- a/hw05/hw05_task3.xlsx
+++ b/hw05/hw05_task3.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
   <si>
     <t>Instruction</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>while comparison 0 &gt; 0 evals False</t>
+  </si>
+  <si>
+    <t>5 0</t>
   </si>
   <si>
     <t>print("L: ", L) </t>
@@ -684,48 +687,57 @@
     </row>
     <row r="38">
       <c t="s" r="A38">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
       </c>
       <c t="s" r="E38">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c s="1" r="F38"/>
     </row>
     <row r="39">
       <c t="s" r="A39">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c t="s" r="E39">
-        <v>23</v>
-      </c>
-      <c t="s" s="1" r="F39">
-        <v>53</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c s="1" r="F39"/>
     </row>
     <row r="40">
       <c t="s" r="A40">
+        <v>22</v>
+      </c>
+      <c t="s" r="E40">
+        <v>23</v>
+      </c>
+      <c t="s" s="1" r="F40">
         <v>57</v>
-      </c>
-      <c t="s" r="E40">
-        <v>58</v>
-      </c>
-      <c t="s" s="1" r="F40">
-        <v>59</v>
       </c>
     </row>
     <row r="41">
       <c t="s" r="A41">
+        <v>58</v>
+      </c>
+      <c t="s" r="E41">
+        <v>59</v>
+      </c>
+      <c t="s" s="1" r="F41">
         <v>60</v>
       </c>
-      <c t="s" r="E41">
+    </row>
+    <row r="42">
+      <c t="s" r="A42">
         <v>61</v>
       </c>
-      <c t="s" s="1" r="F41">
+      <c t="s" r="E42">
         <v>62</v>
       </c>
-    </row>
-    <row r="42">
-      <c s="1" r="F42"/>
+      <c t="s" s="1" r="F42">
+        <v>63</v>
+      </c>
     </row>
     <row r="43">
       <c s="1" r="F43"/>
@@ -900,6 +912,9 @@
     </row>
     <row r="100">
       <c s="1" r="F100"/>
+    </row>
+    <row r="101">
+      <c s="1" r="F101"/>
     </row>
   </sheetData>
 </worksheet>
